--- a/Данные к импортированию.xlsx
+++ b/Данные к импортированию.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Материалы" sheetId="1" r:id="rId1"/>
     <sheet name="Продукты" sheetId="2" r:id="rId2"/>
-    <sheet name="ПродуктыМатериалы" sheetId="3" r:id="rId3"/>
+    <sheet name="Типы продукта" sheetId="4" r:id="rId3"/>
+    <sheet name="ПродуктыМатериалы" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="206">
   <si>
     <t>Наименование материала</t>
   </si>
@@ -628,6 +629,12 @@
   </si>
   <si>
     <t>Столбец1</t>
+  </si>
+  <si>
+    <t>Столбец2</t>
+  </si>
+  <si>
+    <t>Типы прродуктов</t>
   </si>
 </sst>
 </file>
@@ -643,12 +650,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -663,9 +676,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -716,9 +730,30 @@
     <tableColumn id="1" name="Наименование продукции"/>
     <tableColumn id="2" name="Минимальная стоимость для агента" dataDxfId="0"/>
     <tableColumn id="3" name="Изображение"/>
-    <tableColumn id="4" name="Тип продукции"/>
+    <tableColumn id="4" name="Типы прродуктов"/>
     <tableColumn id="5" name="Количество человек для производства"/>
     <tableColumn id="6" name="Номер цеха для производства"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="B1:C8" totalsRowShown="0">
+  <autoFilter ref="B1:C8"/>
+  <tableColumns count="2">
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="1" name="Столбец1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="F1:F7" totalsRowShown="0">
+  <autoFilter ref="F1:F7"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Столбец1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1013,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="A2:H51"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="A2:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,8 +1096,8 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1087,8 +1122,8 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1113,8 +1148,8 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -1139,8 +1174,8 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -1165,8 +1200,8 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -1191,8 +1226,8 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1217,8 +1252,8 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
+      <c r="C8">
+        <v>4</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -1243,8 +1278,8 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
+      <c r="C9">
+        <v>2</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1269,8 +1304,8 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
+      <c r="C10">
+        <v>2</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1295,8 +1330,8 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
+      <c r="C11">
+        <v>2</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1321,8 +1356,8 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>20</v>
+      <c r="C12">
+        <v>4</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1347,8 +1382,8 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
+      <c r="C13">
+        <v>3</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1373,8 +1408,8 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>11</v>
+      <c r="C14">
+        <v>2</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1399,8 +1434,8 @@
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
+      <c r="C15">
+        <v>1</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1425,8 +1460,8 @@
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
-        <v>11</v>
+      <c r="C16">
+        <v>2</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -1451,8 +1486,8 @@
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
-        <v>14</v>
+      <c r="C17">
+        <v>3</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -1477,8 +1512,8 @@
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
-        <v>20</v>
+      <c r="C18">
+        <v>4</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -1503,8 +1538,8 @@
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
-        <v>14</v>
+      <c r="C19">
+        <v>3</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -1529,8 +1564,8 @@
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
-        <v>11</v>
+      <c r="C20">
+        <v>2</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -1555,8 +1590,8 @@
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" t="s">
-        <v>20</v>
+      <c r="C21">
+        <v>4</v>
       </c>
       <c r="D21">
         <v>8</v>
@@ -1581,8 +1616,8 @@
       <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="C22" t="s">
-        <v>8</v>
+      <c r="C22">
+        <v>1</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -1607,8 +1642,8 @@
       <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" t="s">
-        <v>20</v>
+      <c r="C23">
+        <v>4</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1633,8 +1668,8 @@
       <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
+      <c r="C24">
+        <v>1</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1659,8 +1694,8 @@
       <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
+      <c r="C25">
+        <v>2</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1685,8 +1720,8 @@
       <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C26" t="s">
-        <v>11</v>
+      <c r="C26">
+        <v>2</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1711,8 +1746,8 @@
       <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" t="s">
-        <v>11</v>
+      <c r="C27">
+        <v>2</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -1737,8 +1772,8 @@
       <c r="B28" t="s">
         <v>40</v>
       </c>
-      <c r="C28" t="s">
-        <v>8</v>
+      <c r="C28">
+        <v>1</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1763,8 +1798,8 @@
       <c r="B29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" t="s">
-        <v>11</v>
+      <c r="C29">
+        <v>2</v>
       </c>
       <c r="D29">
         <v>9</v>
@@ -1789,8 +1824,8 @@
       <c r="B30" t="s">
         <v>42</v>
       </c>
-      <c r="C30" t="s">
-        <v>20</v>
+      <c r="C30">
+        <v>4</v>
       </c>
       <c r="D30">
         <v>7</v>
@@ -1815,8 +1850,8 @@
       <c r="B31" t="s">
         <v>43</v>
       </c>
-      <c r="C31" t="s">
-        <v>8</v>
+      <c r="C31">
+        <v>1</v>
       </c>
       <c r="D31">
         <v>7</v>
@@ -1841,8 +1876,8 @@
       <c r="B32" t="s">
         <v>44</v>
       </c>
-      <c r="C32" t="s">
-        <v>11</v>
+      <c r="C32">
+        <v>2</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -1867,8 +1902,8 @@
       <c r="B33" t="s">
         <v>45</v>
       </c>
-      <c r="C33" t="s">
-        <v>11</v>
+      <c r="C33">
+        <v>2</v>
       </c>
       <c r="D33">
         <v>9</v>
@@ -1893,8 +1928,8 @@
       <c r="B34" t="s">
         <v>46</v>
       </c>
-      <c r="C34" t="s">
-        <v>11</v>
+      <c r="C34">
+        <v>2</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1919,8 +1954,8 @@
       <c r="B35" t="s">
         <v>47</v>
       </c>
-      <c r="C35" t="s">
-        <v>14</v>
+      <c r="C35">
+        <v>3</v>
       </c>
       <c r="D35">
         <v>7</v>
@@ -1945,8 +1980,8 @@
       <c r="B36" t="s">
         <v>48</v>
       </c>
-      <c r="C36" t="s">
-        <v>20</v>
+      <c r="C36">
+        <v>4</v>
       </c>
       <c r="D36">
         <v>9</v>
@@ -1971,8 +2006,8 @@
       <c r="B37" t="s">
         <v>49</v>
       </c>
-      <c r="C37" t="s">
-        <v>20</v>
+      <c r="C37">
+        <v>4</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1997,8 +2032,8 @@
       <c r="B38" t="s">
         <v>50</v>
       </c>
-      <c r="C38" t="s">
-        <v>14</v>
+      <c r="C38">
+        <v>3</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -2023,8 +2058,8 @@
       <c r="B39" t="s">
         <v>51</v>
       </c>
-      <c r="C39" t="s">
-        <v>11</v>
+      <c r="C39">
+        <v>2</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -2049,8 +2084,8 @@
       <c r="B40" t="s">
         <v>52</v>
       </c>
-      <c r="C40" t="s">
-        <v>11</v>
+      <c r="C40">
+        <v>2</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2075,8 +2110,8 @@
       <c r="B41" t="s">
         <v>53</v>
       </c>
-      <c r="C41" t="s">
-        <v>11</v>
+      <c r="C41">
+        <v>2</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -2101,8 +2136,8 @@
       <c r="B42" t="s">
         <v>54</v>
       </c>
-      <c r="C42" t="s">
-        <v>8</v>
+      <c r="C42">
+        <v>1</v>
       </c>
       <c r="D42">
         <v>8</v>
@@ -2127,8 +2162,8 @@
       <c r="B43" t="s">
         <v>55</v>
       </c>
-      <c r="C43" t="s">
-        <v>11</v>
+      <c r="C43">
+        <v>2</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2153,8 +2188,8 @@
       <c r="B44" t="s">
         <v>56</v>
       </c>
-      <c r="C44" t="s">
-        <v>20</v>
+      <c r="C44">
+        <v>4</v>
       </c>
       <c r="D44">
         <v>10</v>
@@ -2179,8 +2214,8 @@
       <c r="B45" t="s">
         <v>57</v>
       </c>
-      <c r="C45" t="s">
-        <v>14</v>
+      <c r="C45">
+        <v>3</v>
       </c>
       <c r="D45">
         <v>10</v>
@@ -2205,8 +2240,8 @@
       <c r="B46" t="s">
         <v>58</v>
       </c>
-      <c r="C46" t="s">
-        <v>8</v>
+      <c r="C46">
+        <v>1</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -2231,8 +2266,8 @@
       <c r="B47" t="s">
         <v>59</v>
       </c>
-      <c r="C47" t="s">
-        <v>8</v>
+      <c r="C47">
+        <v>1</v>
       </c>
       <c r="D47">
         <v>6</v>
@@ -2257,8 +2292,8 @@
       <c r="B48" t="s">
         <v>60</v>
       </c>
-      <c r="C48" t="s">
-        <v>20</v>
+      <c r="C48">
+        <v>4</v>
       </c>
       <c r="D48">
         <v>8</v>
@@ -2283,8 +2318,8 @@
       <c r="B49" t="s">
         <v>61</v>
       </c>
-      <c r="C49" t="s">
-        <v>8</v>
+      <c r="C49">
+        <v>1</v>
       </c>
       <c r="D49">
         <v>8</v>
@@ -2309,8 +2344,8 @@
       <c r="B50" t="s">
         <v>62</v>
       </c>
-      <c r="C50" t="s">
-        <v>20</v>
+      <c r="C50">
+        <v>4</v>
       </c>
       <c r="D50">
         <v>9</v>
@@ -2335,8 +2370,8 @@
       <c r="B51" t="s">
         <v>63</v>
       </c>
-      <c r="C51" t="s">
-        <v>20</v>
+      <c r="C51">
+        <v>4</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -2367,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,7 +2434,7 @@
         <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="G1" t="s">
         <v>69</v>
@@ -2424,8 +2459,8 @@
       <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
-        <v>73</v>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2450,8 +2485,8 @@
       <c r="E3" t="s">
         <v>75</v>
       </c>
-      <c r="F3" t="s">
-        <v>76</v>
+      <c r="F3">
+        <v>2</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -2476,8 +2511,8 @@
       <c r="E4" t="s">
         <v>75</v>
       </c>
-      <c r="F4" t="s">
-        <v>76</v>
+      <c r="F4">
+        <v>2</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2502,8 +2537,8 @@
       <c r="E5" t="s">
         <v>75</v>
       </c>
-      <c r="F5" t="s">
-        <v>79</v>
+      <c r="F5">
+        <v>3</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -2528,8 +2563,8 @@
       <c r="E6" t="s">
         <v>75</v>
       </c>
-      <c r="F6" t="s">
-        <v>76</v>
+      <c r="F6">
+        <v>2</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2554,8 +2589,8 @@
       <c r="E7" t="s">
         <v>82</v>
       </c>
-      <c r="F7" t="s">
-        <v>83</v>
+      <c r="F7">
+        <v>4</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2580,8 +2615,8 @@
       <c r="E8" t="s">
         <v>75</v>
       </c>
-      <c r="F8" t="s">
-        <v>85</v>
+      <c r="F8">
+        <v>5</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2606,8 +2641,8 @@
       <c r="E9" t="s">
         <v>75</v>
       </c>
-      <c r="F9" t="s">
-        <v>85</v>
+      <c r="F9">
+        <v>5</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2632,8 +2667,8 @@
       <c r="E10" t="s">
         <v>88</v>
       </c>
-      <c r="F10" t="s">
-        <v>79</v>
+      <c r="F10">
+        <v>3</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -2658,8 +2693,8 @@
       <c r="E11" t="s">
         <v>90</v>
       </c>
-      <c r="F11" t="s">
-        <v>85</v>
+      <c r="F11">
+        <v>5</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -2684,8 +2719,8 @@
       <c r="E12" t="s">
         <v>75</v>
       </c>
-      <c r="F12" t="s">
-        <v>83</v>
+      <c r="F12">
+        <v>4</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -2710,8 +2745,8 @@
       <c r="E13" t="s">
         <v>75</v>
       </c>
-      <c r="F13" t="s">
-        <v>79</v>
+      <c r="F13">
+        <v>3</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2736,8 +2771,8 @@
       <c r="E14" t="s">
         <v>75</v>
       </c>
-      <c r="F14" t="s">
-        <v>85</v>
+      <c r="F14">
+        <v>5</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -2762,8 +2797,8 @@
       <c r="E15" t="s">
         <v>75</v>
       </c>
-      <c r="F15" t="s">
-        <v>79</v>
+      <c r="F15">
+        <v>3</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2788,8 +2823,8 @@
       <c r="E16" t="s">
         <v>75</v>
       </c>
-      <c r="F16" t="s">
-        <v>79</v>
+      <c r="F16">
+        <v>3</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2814,8 +2849,8 @@
       <c r="E17" t="s">
         <v>75</v>
       </c>
-      <c r="F17" t="s">
-        <v>79</v>
+      <c r="F17">
+        <v>3</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2840,8 +2875,8 @@
       <c r="E18" t="s">
         <v>75</v>
       </c>
-      <c r="F18" t="s">
-        <v>76</v>
+      <c r="F18">
+        <v>2</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2866,8 +2901,8 @@
       <c r="E19" t="s">
         <v>99</v>
       </c>
-      <c r="F19" t="s">
-        <v>85</v>
+      <c r="F19">
+        <v>5</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2892,8 +2927,8 @@
       <c r="E20" t="s">
         <v>75</v>
       </c>
-      <c r="F20" t="s">
-        <v>83</v>
+      <c r="F20">
+        <v>4</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2918,8 +2953,8 @@
       <c r="E21" t="s">
         <v>75</v>
       </c>
-      <c r="F21" t="s">
-        <v>85</v>
+      <c r="F21">
+        <v>5</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2944,8 +2979,8 @@
       <c r="E22" t="s">
         <v>75</v>
       </c>
-      <c r="F22" t="s">
-        <v>83</v>
+      <c r="F22">
+        <v>4</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2970,8 +3005,8 @@
       <c r="E23" t="s">
         <v>75</v>
       </c>
-      <c r="F23" t="s">
-        <v>85</v>
+      <c r="F23">
+        <v>5</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2996,8 +3031,8 @@
       <c r="E24" t="s">
         <v>75</v>
       </c>
-      <c r="F24" t="s">
-        <v>76</v>
+      <c r="F24">
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -3022,8 +3057,8 @@
       <c r="E25" t="s">
         <v>106</v>
       </c>
-      <c r="F25" t="s">
-        <v>76</v>
+      <c r="F25">
+        <v>2</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -3048,8 +3083,8 @@
       <c r="E26" t="s">
         <v>75</v>
       </c>
-      <c r="F26" t="s">
-        <v>83</v>
+      <c r="F26">
+        <v>4</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3074,8 +3109,8 @@
       <c r="E27" t="s">
         <v>75</v>
       </c>
-      <c r="F27" t="s">
-        <v>73</v>
+      <c r="F27">
+        <v>1</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -3100,8 +3135,8 @@
       <c r="E28" t="s">
         <v>110</v>
       </c>
-      <c r="F28" t="s">
-        <v>76</v>
+      <c r="F28">
+        <v>2</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -3126,8 +3161,8 @@
       <c r="E29" t="s">
         <v>75</v>
       </c>
-      <c r="F29" t="s">
-        <v>83</v>
+      <c r="F29">
+        <v>4</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3152,8 +3187,8 @@
       <c r="E30" t="s">
         <v>75</v>
       </c>
-      <c r="F30" t="s">
-        <v>79</v>
+      <c r="F30">
+        <v>3</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -3178,8 +3213,8 @@
       <c r="E31" t="s">
         <v>75</v>
       </c>
-      <c r="F31" t="s">
-        <v>83</v>
+      <c r="F31">
+        <v>4</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3204,8 +3239,8 @@
       <c r="E32" t="s">
         <v>75</v>
       </c>
-      <c r="F32" t="s">
-        <v>76</v>
+      <c r="F32">
+        <v>2</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3230,8 +3265,8 @@
       <c r="E33" t="s">
         <v>75</v>
       </c>
-      <c r="F33" t="s">
-        <v>76</v>
+      <c r="F33">
+        <v>2</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3256,8 +3291,8 @@
       <c r="E34" t="s">
         <v>117</v>
       </c>
-      <c r="F34" t="s">
-        <v>79</v>
+      <c r="F34">
+        <v>3</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3282,8 +3317,8 @@
       <c r="E35" t="s">
         <v>119</v>
       </c>
-      <c r="F35" t="s">
-        <v>76</v>
+      <c r="F35">
+        <v>2</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -3308,8 +3343,8 @@
       <c r="E36" t="s">
         <v>75</v>
       </c>
-      <c r="F36" t="s">
-        <v>85</v>
+      <c r="F36">
+        <v>5</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3334,8 +3369,8 @@
       <c r="E37" t="s">
         <v>75</v>
       </c>
-      <c r="F37" t="s">
-        <v>79</v>
+      <c r="F37">
+        <v>3</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -3360,8 +3395,8 @@
       <c r="E38" t="s">
         <v>75</v>
       </c>
-      <c r="F38" t="s">
-        <v>83</v>
+      <c r="F38">
+        <v>4</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3386,8 +3421,8 @@
       <c r="E39" t="s">
         <v>75</v>
       </c>
-      <c r="F39" t="s">
-        <v>83</v>
+      <c r="F39">
+        <v>4</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -3412,8 +3447,8 @@
       <c r="E40" t="s">
         <v>75</v>
       </c>
-      <c r="F40" t="s">
-        <v>79</v>
+      <c r="F40">
+        <v>3</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3438,8 +3473,8 @@
       <c r="E41" t="s">
         <v>75</v>
       </c>
-      <c r="F41" t="s">
-        <v>76</v>
+      <c r="F41">
+        <v>2</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -3464,8 +3499,8 @@
       <c r="E42" t="s">
         <v>75</v>
       </c>
-      <c r="F42" t="s">
-        <v>73</v>
+      <c r="F42">
+        <v>1</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -3490,8 +3525,8 @@
       <c r="E43" t="s">
         <v>75</v>
       </c>
-      <c r="F43" t="s">
-        <v>85</v>
+      <c r="F43">
+        <v>5</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3516,8 +3551,8 @@
       <c r="E44" t="s">
         <v>75</v>
       </c>
-      <c r="F44" t="s">
-        <v>83</v>
+      <c r="F44">
+        <v>4</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -3542,8 +3577,8 @@
       <c r="E45" t="s">
         <v>75</v>
       </c>
-      <c r="F45" t="s">
-        <v>85</v>
+      <c r="F45">
+        <v>5</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -3568,8 +3603,8 @@
       <c r="E46" t="s">
         <v>75</v>
       </c>
-      <c r="F46" t="s">
-        <v>85</v>
+      <c r="F46">
+        <v>5</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -3594,8 +3629,8 @@
       <c r="E47" t="s">
         <v>75</v>
       </c>
-      <c r="F47" t="s">
-        <v>76</v>
+      <c r="F47">
+        <v>2</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -3620,8 +3655,8 @@
       <c r="E48" t="s">
         <v>75</v>
       </c>
-      <c r="F48" t="s">
-        <v>85</v>
+      <c r="F48">
+        <v>5</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -3646,8 +3681,8 @@
       <c r="E49" t="s">
         <v>75</v>
       </c>
-      <c r="F49" t="s">
-        <v>85</v>
+      <c r="F49">
+        <v>5</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -3672,8 +3707,8 @@
       <c r="E50" t="s">
         <v>75</v>
       </c>
-      <c r="F50" t="s">
-        <v>85</v>
+      <c r="F50">
+        <v>5</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -3698,8 +3733,8 @@
       <c r="E51" t="s">
         <v>75</v>
       </c>
-      <c r="F51" t="s">
-        <v>83</v>
+      <c r="F51">
+        <v>4</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -3724,8 +3759,8 @@
       <c r="E52" t="s">
         <v>75</v>
       </c>
-      <c r="F52" t="s">
-        <v>76</v>
+      <c r="F52">
+        <v>2</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -3750,8 +3785,8 @@
       <c r="E53" t="s">
         <v>138</v>
       </c>
-      <c r="F53" t="s">
-        <v>73</v>
+      <c r="F53">
+        <v>1</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -3776,8 +3811,8 @@
       <c r="E54" t="s">
         <v>75</v>
       </c>
-      <c r="F54" t="s">
-        <v>85</v>
+      <c r="F54">
+        <v>5</v>
       </c>
       <c r="G54">
         <v>5</v>
@@ -3802,8 +3837,8 @@
       <c r="E55" t="s">
         <v>75</v>
       </c>
-      <c r="F55" t="s">
-        <v>76</v>
+      <c r="F55">
+        <v>2</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -3828,8 +3863,8 @@
       <c r="E56" t="s">
         <v>75</v>
       </c>
-      <c r="F56" t="s">
-        <v>73</v>
+      <c r="F56">
+        <v>1</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -3854,8 +3889,8 @@
       <c r="E57" t="s">
         <v>75</v>
       </c>
-      <c r="F57" t="s">
-        <v>79</v>
+      <c r="F57">
+        <v>3</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -3880,8 +3915,8 @@
       <c r="E58" t="s">
         <v>144</v>
       </c>
-      <c r="F58" t="s">
-        <v>85</v>
+      <c r="F58">
+        <v>5</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -3906,8 +3941,8 @@
       <c r="E59" t="s">
         <v>146</v>
       </c>
-      <c r="F59" t="s">
-        <v>85</v>
+      <c r="F59">
+        <v>5</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -3932,8 +3967,8 @@
       <c r="E60" t="s">
         <v>148</v>
       </c>
-      <c r="F60" t="s">
-        <v>83</v>
+      <c r="F60">
+        <v>4</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -3958,8 +3993,8 @@
       <c r="E61" t="s">
         <v>150</v>
       </c>
-      <c r="F61" t="s">
-        <v>79</v>
+      <c r="F61">
+        <v>3</v>
       </c>
       <c r="G61">
         <v>5</v>
@@ -3984,8 +4019,8 @@
       <c r="E62" t="s">
         <v>75</v>
       </c>
-      <c r="F62" t="s">
-        <v>85</v>
+      <c r="F62">
+        <v>5</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -4010,8 +4045,8 @@
       <c r="E63" t="s">
         <v>75</v>
       </c>
-      <c r="F63" t="s">
-        <v>73</v>
+      <c r="F63">
+        <v>1</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -4036,8 +4071,8 @@
       <c r="E64" t="s">
         <v>154</v>
       </c>
-      <c r="F64" t="s">
-        <v>73</v>
+      <c r="F64">
+        <v>1</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -4062,8 +4097,8 @@
       <c r="E65" t="s">
         <v>75</v>
       </c>
-      <c r="F65" t="s">
-        <v>76</v>
+      <c r="F65">
+        <v>2</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -4088,8 +4123,8 @@
       <c r="E66" t="s">
         <v>75</v>
       </c>
-      <c r="F66" t="s">
-        <v>76</v>
+      <c r="F66">
+        <v>2</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -4114,8 +4149,8 @@
       <c r="E67" t="s">
         <v>158</v>
       </c>
-      <c r="F67" t="s">
-        <v>76</v>
+      <c r="F67">
+        <v>2</v>
       </c>
       <c r="G67">
         <v>5</v>
@@ -4140,8 +4175,8 @@
       <c r="E68" t="s">
         <v>75</v>
       </c>
-      <c r="F68" t="s">
-        <v>85</v>
+      <c r="F68">
+        <v>5</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -4166,8 +4201,8 @@
       <c r="E69" t="s">
         <v>161</v>
       </c>
-      <c r="F69" t="s">
-        <v>79</v>
+      <c r="F69">
+        <v>3</v>
       </c>
       <c r="G69">
         <v>4</v>
@@ -4192,8 +4227,8 @@
       <c r="E70" t="s">
         <v>75</v>
       </c>
-      <c r="F70" t="s">
-        <v>73</v>
+      <c r="F70">
+        <v>1</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -4218,8 +4253,8 @@
       <c r="E71" t="s">
         <v>75</v>
       </c>
-      <c r="F71" t="s">
-        <v>85</v>
+      <c r="F71">
+        <v>5</v>
       </c>
       <c r="G71">
         <v>5</v>
@@ -4244,8 +4279,8 @@
       <c r="E72" t="s">
         <v>165</v>
       </c>
-      <c r="F72" t="s">
-        <v>76</v>
+      <c r="F72">
+        <v>2</v>
       </c>
       <c r="G72">
         <v>4</v>
@@ -4270,8 +4305,8 @@
       <c r="E73" t="s">
         <v>167</v>
       </c>
-      <c r="F73" t="s">
-        <v>83</v>
+      <c r="F73">
+        <v>4</v>
       </c>
       <c r="G73">
         <v>4</v>
@@ -4296,8 +4331,8 @@
       <c r="E74" t="s">
         <v>169</v>
       </c>
-      <c r="F74" t="s">
-        <v>83</v>
+      <c r="F74">
+        <v>4</v>
       </c>
       <c r="G74">
         <v>5</v>
@@ -4322,8 +4357,8 @@
       <c r="E75" t="s">
         <v>171</v>
       </c>
-      <c r="F75" t="s">
-        <v>76</v>
+      <c r="F75">
+        <v>2</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -4348,8 +4383,8 @@
       <c r="E76" t="s">
         <v>173</v>
       </c>
-      <c r="F76" t="s">
-        <v>76</v>
+      <c r="F76">
+        <v>2</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -4374,8 +4409,8 @@
       <c r="E77" t="s">
         <v>175</v>
       </c>
-      <c r="F77" t="s">
-        <v>73</v>
+      <c r="F77">
+        <v>1</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -4400,8 +4435,8 @@
       <c r="E78" t="s">
         <v>177</v>
       </c>
-      <c r="F78" t="s">
-        <v>85</v>
+      <c r="F78">
+        <v>5</v>
       </c>
       <c r="G78">
         <v>5</v>
@@ -4426,8 +4461,8 @@
       <c r="E79" t="s">
         <v>75</v>
       </c>
-      <c r="F79" t="s">
-        <v>83</v>
+      <c r="F79">
+        <v>4</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -4452,8 +4487,8 @@
       <c r="E80" t="s">
         <v>180</v>
       </c>
-      <c r="F80" t="s">
-        <v>73</v>
+      <c r="F80">
+        <v>1</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -4478,8 +4513,8 @@
       <c r="E81" t="s">
         <v>75</v>
       </c>
-      <c r="F81" t="s">
-        <v>85</v>
+      <c r="F81">
+        <v>5</v>
       </c>
       <c r="G81">
         <v>5</v>
@@ -4504,8 +4539,8 @@
       <c r="E82" t="s">
         <v>75</v>
       </c>
-      <c r="F82" t="s">
-        <v>79</v>
+      <c r="F82">
+        <v>3</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -4530,8 +4565,8 @@
       <c r="E83" t="s">
         <v>75</v>
       </c>
-      <c r="F83" t="s">
-        <v>73</v>
+      <c r="F83">
+        <v>1</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -4556,8 +4591,8 @@
       <c r="E84" t="s">
         <v>75</v>
       </c>
-      <c r="F84" t="s">
-        <v>76</v>
+      <c r="F84">
+        <v>2</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -4582,8 +4617,8 @@
       <c r="E85" t="s">
         <v>75</v>
       </c>
-      <c r="F85" t="s">
-        <v>73</v>
+      <c r="F85">
+        <v>1</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -4608,8 +4643,8 @@
       <c r="E86" t="s">
         <v>75</v>
       </c>
-      <c r="F86" t="s">
-        <v>83</v>
+      <c r="F86">
+        <v>4</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -4634,8 +4669,8 @@
       <c r="E87" t="s">
         <v>75</v>
       </c>
-      <c r="F87" t="s">
-        <v>79</v>
+      <c r="F87">
+        <v>3</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -4660,8 +4695,8 @@
       <c r="E88" t="s">
         <v>75</v>
       </c>
-      <c r="F88" t="s">
-        <v>76</v>
+      <c r="F88">
+        <v>2</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -4686,8 +4721,8 @@
       <c r="E89" t="s">
         <v>75</v>
       </c>
-      <c r="F89" t="s">
-        <v>73</v>
+      <c r="F89">
+        <v>1</v>
       </c>
       <c r="G89">
         <v>4</v>
@@ -4712,8 +4747,8 @@
       <c r="E90" t="s">
         <v>75</v>
       </c>
-      <c r="F90" t="s">
-        <v>76</v>
+      <c r="F90">
+        <v>2</v>
       </c>
       <c r="G90">
         <v>4</v>
@@ -4738,8 +4773,8 @@
       <c r="E91" t="s">
         <v>75</v>
       </c>
-      <c r="F91" t="s">
-        <v>83</v>
+      <c r="F91">
+        <v>4</v>
       </c>
       <c r="G91">
         <v>4</v>
@@ -4764,8 +4799,8 @@
       <c r="E92" t="s">
         <v>75</v>
       </c>
-      <c r="F92" t="s">
-        <v>85</v>
+      <c r="F92">
+        <v>5</v>
       </c>
       <c r="G92">
         <v>5</v>
@@ -4790,8 +4825,8 @@
       <c r="E93" t="s">
         <v>75</v>
       </c>
-      <c r="F93" t="s">
-        <v>73</v>
+      <c r="F93">
+        <v>1</v>
       </c>
       <c r="G93">
         <v>5</v>
@@ -4816,8 +4851,8 @@
       <c r="E94" t="s">
         <v>75</v>
       </c>
-      <c r="F94" t="s">
-        <v>83</v>
+      <c r="F94">
+        <v>4</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -4842,8 +4877,8 @@
       <c r="E95" t="s">
         <v>196</v>
       </c>
-      <c r="F95" t="s">
-        <v>79</v>
+      <c r="F95">
+        <v>3</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -4868,8 +4903,8 @@
       <c r="E96" t="s">
         <v>75</v>
       </c>
-      <c r="F96" t="s">
-        <v>73</v>
+      <c r="F96">
+        <v>1</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -4894,8 +4929,8 @@
       <c r="E97" t="s">
         <v>75</v>
       </c>
-      <c r="F97" t="s">
-        <v>79</v>
+      <c r="F97">
+        <v>3</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -4920,8 +4955,8 @@
       <c r="E98" t="s">
         <v>75</v>
       </c>
-      <c r="F98" t="s">
-        <v>79</v>
+      <c r="F98">
+        <v>3</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -4946,8 +4981,8 @@
       <c r="E99" t="s">
         <v>75</v>
       </c>
-      <c r="F99" t="s">
-        <v>85</v>
+      <c r="F99">
+        <v>5</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -4972,8 +5007,8 @@
       <c r="E100" t="s">
         <v>75</v>
       </c>
-      <c r="F100" t="s">
-        <v>79</v>
+      <c r="F100">
+        <v>3</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -4998,8 +5033,8 @@
       <c r="E101" t="s">
         <v>75</v>
       </c>
-      <c r="F101" t="s">
-        <v>73</v>
+      <c r="F101">
+        <v>1</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -5018,10 +5053,120 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="6" max="7" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
